--- a/reopening_or.xlsx
+++ b/reopening_or.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ei\mobility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ei\replicate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1583,7 +1583,9 @@
       <c r="D22" s="2">
         <v>43966</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>44104</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
